--- a/ChepurnykhSR.DataBase.xlsx
+++ b/ChepurnykhSR.DataBase.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Tyuiu.ChepurnykhSR.Sprint7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0007F51-CD52-49A2-99AF-5EE60A929602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24F7113-1584-44AF-9C4B-D7097E09234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChepurnykhSR.DataBase" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1559,11 +1559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,16 +1686,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1704,27 +1704,24 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I5">
-        <v>21</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1736,24 +1733,24 @@
         <v>23</v>
       </c>
       <c r="H6" s="1">
-        <v>44197</v>
+        <v>40796</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1765,24 +1762,24 @@
         <v>23</v>
       </c>
       <c r="H7" s="1">
-        <v>40796</v>
+        <v>44197</v>
       </c>
       <c r="I7">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1797,21 +1794,21 @@
         <v>40796</v>
       </c>
       <c r="I8">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1820,27 +1817,27 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1">
-        <v>41091</v>
+        <v>40796</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1852,24 +1849,24 @@
         <v>13</v>
       </c>
       <c r="H10" s="1">
-        <v>42065</v>
+        <v>41091</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1881,24 +1878,24 @@
         <v>13</v>
       </c>
       <c r="H11" s="1">
-        <v>40796</v>
+        <v>42065</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1913,108 +1910,108 @@
         <v>40796</v>
       </c>
       <c r="I12">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
         <v>44197</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I15">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -2029,21 +2026,21 @@
         <v>40796</v>
       </c>
       <c r="I16">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2058,21 +2055,21 @@
         <v>40796</v>
       </c>
       <c r="I17">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2084,111 +2081,111 @@
         <v>13</v>
       </c>
       <c r="H18" s="1">
-        <v>43101</v>
+        <v>40796</v>
       </c>
       <c r="I18">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43101</v>
+      </c>
+      <c r="I19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I19">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1">
         <v>44197</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I21">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -2203,21 +2200,21 @@
         <v>40796</v>
       </c>
       <c r="I22">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -2229,24 +2226,24 @@
         <v>13</v>
       </c>
       <c r="H23" s="1">
-        <v>41666</v>
+        <v>40796</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -2255,27 +2252,27 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1">
-        <v>41810</v>
+        <v>41666</v>
       </c>
       <c r="I24">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2284,27 +2281,27 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H25" s="1">
-        <v>40796</v>
+        <v>41810</v>
       </c>
       <c r="I25">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -2313,24 +2310,27 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1">
         <v>40796</v>
+      </c>
+      <c r="I26">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2339,56 +2339,53 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <v>40796</v>
-      </c>
-      <c r="I27">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I28">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I28">
-        <v>38</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>82</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2397,27 +2394,24 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1">
-        <v>44197</v>
-      </c>
-      <c r="I29">
-        <v>48</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2426,27 +2420,27 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1">
         <v>40796</v>
       </c>
       <c r="I30">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
+      <c r="A31" t="s">
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2458,21 +2452,24 @@
         <v>23</v>
       </c>
       <c r="H31" s="1">
-        <v>40796</v>
+        <v>44197</v>
+      </c>
+      <c r="I31">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2487,21 +2484,21 @@
         <v>40796</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2510,27 +2507,24 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H33" s="1">
         <v>40796</v>
-      </c>
-      <c r="I33">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2539,27 +2533,27 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1">
         <v>40796</v>
       </c>
       <c r="I34">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2571,24 +2565,24 @@
         <v>13</v>
       </c>
       <c r="H35" s="1">
-        <v>43831</v>
+        <v>40796</v>
       </c>
       <c r="I35">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2597,27 +2591,27 @@
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H36" s="1">
         <v>40796</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>99</v>
+      <c r="A37">
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2629,21 +2623,24 @@
         <v>13</v>
       </c>
       <c r="H37" s="1">
-        <v>44197</v>
+        <v>43831</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2652,24 +2649,27 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1">
         <v>40796</v>
       </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
+      <c r="A39" t="s">
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2681,24 +2681,21 @@
         <v>13</v>
       </c>
       <c r="H39" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I39">
-        <v>52</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2707,27 +2704,24 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1">
-        <v>41810</v>
-      </c>
-      <c r="I40">
-        <v>38</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2736,27 +2730,27 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1">
-        <v>43831</v>
+        <v>40796</v>
       </c>
       <c r="I41">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2765,27 +2759,27 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1">
-        <v>41827</v>
+        <v>41810</v>
       </c>
       <c r="I42">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2797,21 +2791,24 @@
         <v>23</v>
       </c>
       <c r="H43" s="1">
-        <v>40796</v>
+        <v>43831</v>
+      </c>
+      <c r="I43">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2823,24 +2820,24 @@
         <v>23</v>
       </c>
       <c r="H44" s="1">
-        <v>40796</v>
+        <v>41827</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2854,22 +2851,19 @@
       <c r="H45" s="1">
         <v>40796</v>
       </c>
-      <c r="I45">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2878,27 +2872,27 @@
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1">
         <v>40796</v>
       </c>
       <c r="I46">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2907,27 +2901,27 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H47" s="1">
-        <v>41709</v>
+        <v>40796</v>
       </c>
       <c r="I47">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>120</v>
+      <c r="A48">
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2939,24 +2933,24 @@
         <v>13</v>
       </c>
       <c r="H48" s="1">
-        <v>43831</v>
+        <v>40796</v>
       </c>
       <c r="I48">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2968,24 +2962,24 @@
         <v>13</v>
       </c>
       <c r="H49" s="1">
-        <v>40796</v>
+        <v>41709</v>
       </c>
       <c r="I49">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2997,24 +2991,24 @@
         <v>13</v>
       </c>
       <c r="H50" s="1">
-        <v>40796</v>
+        <v>43831</v>
       </c>
       <c r="I50">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3023,27 +3017,27 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1">
         <v>40796</v>
       </c>
       <c r="I51">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3055,24 +3049,24 @@
         <v>13</v>
       </c>
       <c r="H52" s="1">
-        <v>40983</v>
+        <v>40796</v>
       </c>
       <c r="I52">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>131</v>
+      <c r="A53">
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -3081,27 +3075,27 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H53" s="1">
-        <v>44197</v>
+        <v>40796</v>
       </c>
       <c r="I53">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3110,24 +3104,27 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1">
-        <v>40796</v>
+        <v>40983</v>
+      </c>
+      <c r="I54">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
+      <c r="A55" t="s">
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3139,53 +3136,50 @@
         <v>13</v>
       </c>
       <c r="H55" s="1">
-        <v>40796</v>
+        <v>44197</v>
       </c>
       <c r="I55">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1">
+        <v>40796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I56">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
-      </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3197,21 +3191,24 @@
         <v>13</v>
       </c>
       <c r="H57" s="1">
-        <v>44197</v>
+        <v>40796</v>
+      </c>
+      <c r="I57">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3223,24 +3220,24 @@
         <v>13</v>
       </c>
       <c r="H58" s="1">
-        <v>41575</v>
+        <v>40796</v>
       </c>
       <c r="I58">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
+      <c r="A59" t="s">
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3249,27 +3246,24 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I59">
-        <v>50</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3281,24 +3275,24 @@
         <v>13</v>
       </c>
       <c r="H60" s="1">
-        <v>42065</v>
+        <v>41575</v>
       </c>
       <c r="I60">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3313,21 +3307,21 @@
         <v>40796</v>
       </c>
       <c r="I61">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3339,24 +3333,24 @@
         <v>13</v>
       </c>
       <c r="H62" s="1">
-        <v>41883</v>
+        <v>42065</v>
       </c>
       <c r="I62">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3371,21 +3365,21 @@
         <v>40796</v>
       </c>
       <c r="I63">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3394,27 +3388,27 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1">
-        <v>40796</v>
+        <v>41883</v>
       </c>
       <c r="I64">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3428,19 +3422,22 @@
       <c r="H65" s="1">
         <v>40796</v>
       </c>
+      <c r="I65">
+        <v>56</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3449,27 +3446,27 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H66" s="1">
-        <v>41813</v>
+        <v>40796</v>
       </c>
       <c r="I66">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3481,21 +3478,21 @@
         <v>23</v>
       </c>
       <c r="H67" s="1">
-        <v>44197</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3504,27 +3501,27 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1">
-        <v>40796</v>
+        <v>41813</v>
       </c>
       <c r="I68">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3536,24 +3533,21 @@
         <v>23</v>
       </c>
       <c r="H69" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I69">
-        <v>42</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3565,21 +3559,24 @@
         <v>23</v>
       </c>
       <c r="H70" s="1">
-        <v>41883</v>
+        <v>40796</v>
+      </c>
+      <c r="I70">
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3594,21 +3591,21 @@
         <v>40796</v>
       </c>
       <c r="I71">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3617,27 +3614,24 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H72" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I72">
-        <v>53</v>
+        <v>41883</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
         <v>127</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3646,27 +3640,27 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1">
         <v>40796</v>
       </c>
       <c r="I73">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3678,7 +3672,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="1">
-        <v>41946</v>
+        <v>40796</v>
       </c>
       <c r="I74">
         <v>53</v>
@@ -3686,16 +3680,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3710,21 +3704,21 @@
         <v>40796</v>
       </c>
       <c r="I75">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3736,24 +3730,24 @@
         <v>13</v>
       </c>
       <c r="H76" s="1">
-        <v>40796</v>
+        <v>41946</v>
       </c>
       <c r="I76">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3768,21 +3762,21 @@
         <v>40796</v>
       </c>
       <c r="I77">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3795,20 +3789,23 @@
       </c>
       <c r="H78" s="1">
         <v>40796</v>
+      </c>
+      <c r="I78">
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3821,20 +3818,23 @@
       </c>
       <c r="H79" s="1">
         <v>40796</v>
+      </c>
+      <c r="I79">
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3848,22 +3848,19 @@
       <c r="H80" s="1">
         <v>40796</v>
       </c>
-      <c r="I80">
-        <v>45</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>189</v>
+      <c r="A81">
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3880,16 +3877,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -3902,20 +3899,23 @@
       </c>
       <c r="H82" s="1">
         <v>40796</v>
+      </c>
+      <c r="I82">
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -3927,105 +3927,105 @@
         <v>13</v>
       </c>
       <c r="H83" s="1">
-        <v>44197</v>
-      </c>
-      <c r="I83">
-        <v>57</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="1">
+        <v>40796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1">
+        <v>44197</v>
+      </c>
+      <c r="I85">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>121</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>197</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>185</v>
       </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I84">
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I86">
         <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>128</v>
-      </c>
-      <c r="B85" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="1">
-        <v>40796</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="1">
-        <v>40796</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -4039,22 +4039,19 @@
       <c r="H87" s="1">
         <v>40796</v>
       </c>
-      <c r="I87">
-        <v>47</v>
-      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>140</v>
+      <c r="A88" t="s">
+        <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -4071,16 +4068,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4095,47 +4092,47 @@
         <v>40796</v>
       </c>
       <c r="I89">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1">
+        <v>40796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>144</v>
+      </c>
+      <c r="B91" t="s">
         <v>154</v>
       </c>
-      <c r="C90" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="1">
-        <v>40796</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4147,24 +4144,24 @@
         <v>13</v>
       </c>
       <c r="H91" s="1">
-        <v>44197</v>
+        <v>40796</v>
       </c>
       <c r="I91">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -4180,17 +4177,17 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>147</v>
+      <c r="A93" t="s">
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4202,24 +4199,24 @@
         <v>13</v>
       </c>
       <c r="H93" s="1">
-        <v>40796</v>
+        <v>44197</v>
       </c>
       <c r="I93">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -4235,17 +4232,17 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>218</v>
+      <c r="A95">
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4257,92 +4254,98 @@
         <v>13</v>
       </c>
       <c r="H95" s="1">
-        <v>44197</v>
+        <v>40796</v>
       </c>
       <c r="I95">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="1">
+        <v>40796</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="1">
+        <v>44197</v>
+      </c>
+      <c r="I97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>156</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>74</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>221</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>222</v>
       </c>
-      <c r="E96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="1">
-        <v>40796</v>
-      </c>
-      <c r="I96">
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="1">
+        <v>40796</v>
+      </c>
+      <c r="I98">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>28</v>
-      </c>
-      <c r="B97" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" t="s">
-        <v>224</v>
-      </c>
-      <c r="E97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="1">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1">
-        <v>44805</v>
-      </c>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChepurnykhSR.DataBase.xlsx
+++ b/ChepurnykhSR.DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Tyuiu.ChepurnykhSR.Sprint7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24F7113-1584-44AF-9C4B-D7097E09234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C3156-AA95-4DA6-8E03-76ACBCC1D25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="226">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -184,9 +184,6 @@
     <t>38.15</t>
   </si>
   <si>
-    <t>ул. Созидателей</t>
-  </si>
-  <si>
     <t>Тюменский индустриальный университет</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>23.57</t>
   </si>
   <si>
-    <t>з?д Нефтемаш</t>
-  </si>
-  <si>
     <t>30.85</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>37.35</t>
   </si>
   <si>
-    <t>з?д Медоборудования</t>
-  </si>
-  <si>
     <t>Тараскуль</t>
   </si>
   <si>
@@ -701,6 +692,12 @@
   </si>
   <si>
     <t>18.28</t>
+  </si>
+  <si>
+    <t>ул. Соз-дателей</t>
+  </si>
+  <si>
+    <t>з-д Нефтемаш</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -2092,13 +2089,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -2121,13 +2118,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -2147,16 +2144,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -2179,13 +2176,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -2211,10 +2208,10 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -2237,13 +2234,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -2266,13 +2263,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2301,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -2324,13 +2321,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2350,13 +2347,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2379,13 +2376,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2405,13 +2402,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2431,16 +2428,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2463,13 +2460,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2498,7 +2495,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2521,10 +2518,10 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2550,10 +2547,10 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2579,10 +2576,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2605,13 +2602,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2637,10 +2634,10 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2660,16 +2657,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2689,13 +2686,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
         <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2715,13 +2712,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2744,13 +2741,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2773,13 +2770,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2808,7 +2805,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2831,13 +2828,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2857,13 +2854,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
         <v>113</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2886,10 +2883,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="D47">
         <v>55</v>
@@ -2915,13 +2912,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2944,13 +2941,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2970,16 +2967,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -3005,10 +3002,10 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3031,13 +3028,13 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3060,13 +3057,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -3092,10 +3089,10 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3115,16 +3112,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3147,13 +3144,13 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" t="s">
-        <v>135</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3173,13 +3170,13 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3202,13 +3199,13 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3228,16 +3225,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
         <v>140</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" t="s">
-        <v>142</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3257,13 +3254,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3286,13 +3283,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
         <v>146</v>
-      </c>
-      <c r="C61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3315,13 +3312,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" t="s">
-        <v>151</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3344,13 +3341,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3373,13 +3370,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3405,10 +3402,10 @@
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3434,10 +3431,10 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3460,13 +3457,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3489,10 +3486,10 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3518,10 +3515,10 @@
         <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3541,13 +3538,13 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3570,13 +3567,13 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3602,10 +3599,10 @@
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3625,13 +3622,13 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3654,13 +3651,13 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3683,13 +3680,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3712,13 +3709,13 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3744,10 +3741,10 @@
         <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3770,13 +3767,13 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3799,13 +3796,13 @@
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3828,13 +3825,13 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3854,13 +3851,13 @@
         <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3880,13 +3877,13 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -3906,16 +3903,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -3935,13 +3932,13 @@
         <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3958,16 +3955,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="s">
         <v>193</v>
-      </c>
-      <c r="D85" t="s">
-        <v>196</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3993,10 +3990,10 @@
         <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -4019,13 +4016,13 @@
         <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -4042,16 +4039,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -4071,13 +4068,13 @@
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4100,13 +4097,13 @@
         <v>140</v>
       </c>
       <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
         <v>203</v>
       </c>
-      <c r="C90" t="s">
-        <v>206</v>
-      </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -4126,13 +4123,13 @@
         <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4155,13 +4152,13 @@
         <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -4178,16 +4175,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4210,13 +4207,13 @@
         <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -4236,13 +4233,13 @@
         <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4265,13 +4262,13 @@
         <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4288,16 +4285,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -4320,13 +4317,13 @@
         <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
